--- a/config_debug/fish3d_map_config.xlsx
+++ b/config_debug/fish3d_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="258">
   <si>
     <t>line|行号</t>
   </si>
@@ -1008,6 +1008,34 @@
   </si>
   <si>
     <t>3dby_icon_yu42</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高400倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高700倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高800倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1445,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2986,7 +3014,7 @@
         <v>46</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>14</v>
@@ -3022,7 +3050,7 @@
         <v>46</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>130</v>
@@ -3058,7 +3086,7 @@
         <v>46</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>131</v>
@@ -3128,7 +3156,7 @@
         <v>46</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>133</v>
@@ -3164,7 +3192,7 @@
         <v>46</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>134</v>
@@ -3199,7 +3227,7 @@
         <v>46</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>135</v>
@@ -3233,7 +3261,7 @@
         <v>44</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>136</v>
@@ -3269,7 +3297,7 @@
         <v>46</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>137</v>
@@ -3306,7 +3334,7 @@
         <v>46</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>138</v>
@@ -3342,7 +3370,7 @@
         <v>46</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>139</v>
@@ -3378,7 +3406,7 @@
         <v>46</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>205</v>
@@ -3414,7 +3442,7 @@
         <v>46</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>40</v>

--- a/config_debug/fish3d_map_config.xlsx
+++ b/config_debug/fish3d_map_config.xlsx
@@ -134,10 +134,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>捕获奇遇蟹，会触发30秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -295,10 +291,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>奇遇蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_yu32</t>
   </si>
   <si>
@@ -1036,6 +1028,14 @@
   </si>
   <si>
     <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1516,20 +1516,20 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>7</v>
@@ -1547,29 +1547,29 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="5">
         <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -1585,26 +1585,26 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="5">
         <v>8</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>25</v>
@@ -1623,29 +1623,29 @@
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="5">
         <v>8</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -1661,26 +1661,26 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="5">
         <v>5</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>26</v>
@@ -1699,26 +1699,26 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="5">
         <v>8</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L6" s="18" t="s">
         <v>23</v>
@@ -1737,29 +1737,29 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="5">
         <v>5</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -1775,26 +1775,26 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="5">
         <v>5</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>18</v>
@@ -1813,29 +1813,29 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5">
         <v>5</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="2"/>
@@ -1852,29 +1852,29 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="5">
         <v>5</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N10" s="2"/>
     </row>
@@ -1890,26 +1890,26 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="5">
         <v>5</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>19</v>
@@ -1928,29 +1928,29 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="5">
         <v>4</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="2"/>
@@ -1967,29 +1967,29 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="5">
         <v>5</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="2"/>
@@ -2006,26 +2006,26 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="5">
         <v>5</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L14" s="18" t="s">
         <v>27</v>
@@ -2044,29 +2044,29 @@
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="5">
         <v>4</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N15" s="2"/>
     </row>
@@ -2082,26 +2082,26 @@
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="5">
         <v>4</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L16" s="17" t="s">
         <v>18</v>
@@ -2120,26 +2120,26 @@
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="5">
         <v>4</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>26</v>
@@ -2158,26 +2158,26 @@
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="5">
         <v>3</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>21</v>
@@ -2195,26 +2195,26 @@
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="5">
         <v>3</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>24</v>
@@ -2232,26 +2232,26 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="5">
         <v>3</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>20</v>
@@ -2269,26 +2269,26 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="5">
         <v>2</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L21" s="17" t="s">
         <v>18</v>
@@ -2314,26 +2314,26 @@
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="5">
         <v>2</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L22" s="18" t="s">
         <v>22</v>
@@ -2358,29 +2358,29 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
         <v>2</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2402,29 +2402,29 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="5">
         <v>4</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2446,29 +2446,29 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
         <v>3</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2490,26 +2490,26 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
         <v>3</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>29</v>
@@ -2534,26 +2534,26 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="5">
         <v>3</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>28</v>
@@ -2579,29 +2579,29 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
         <v>2</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2623,26 +2623,26 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="5">
         <v>3</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>30</v>
@@ -2660,29 +2660,29 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="5">
         <v>3</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2704,26 +2704,26 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="5">
         <v>3</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L31" s="18" t="s">
         <v>31</v>
@@ -2748,29 +2748,29 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
         <v>3</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2784,29 +2784,29 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
         <v>3</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2820,23 +2820,23 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
         <v>2</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>13</v>
@@ -2856,29 +2856,29 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
         <v>3</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2892,29 +2892,29 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
         <v>3</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2928,29 +2928,29 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
         <v>3</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2964,10 +2964,10 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -2975,16 +2975,16 @@
         <v>3</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -2998,29 +2998,29 @@
         <v>2</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="5">
         <v>3</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -3034,29 +3034,29 @@
         <v>2</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
         <v>3</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -3070,26 +3070,26 @@
         <v>2</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="5">
         <v>0.5</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>17</v>
@@ -3106,29 +3106,29 @@
         <v>2</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="5">
         <v>2</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3142,10 +3142,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -3153,16 +3153,16 @@
         <v>3</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -3176,29 +3176,29 @@
         <v>2</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="5">
         <v>1.5</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M44" s="18"/>
     </row>
@@ -3213,10 +3213,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -3224,16 +3224,16 @@
         <v>1</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -3247,10 +3247,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -3258,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3281,29 +3281,29 @@
         <v>2</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="5">
         <v>2</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M47" s="8"/>
     </row>
@@ -3318,26 +3318,26 @@
         <v>2</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="5">
         <v>1</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L48" s="18" t="s">
         <v>15</v>
@@ -3354,29 +3354,29 @@
         <v>2</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="5">
         <v>1</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3390,29 +3390,29 @@
         <v>2</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="5">
         <v>0.5</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3426,29 +3426,29 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="5">
         <v>1</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish3d_map_config.xlsx
+++ b/config_debug/fish3d_map_config.xlsx
@@ -831,211 +831,211 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>3dby_icon_yu28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高400倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高700倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>3dby_icon_yu27</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_yu28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu42</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高400倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高700倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高800倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1046,7 +1046,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,6 +1085,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1136,7 +1144,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,6 +1201,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1473,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1547,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>78</v>
@@ -1585,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>50</v>
@@ -1661,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>51</v>
@@ -1699,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>52</v>
@@ -1737,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>10</v>
@@ -1775,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>53</v>
@@ -1813,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>54</v>
@@ -1852,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>55</v>
@@ -1890,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>79</v>
@@ -1928,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>80</v>
@@ -1967,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>56</v>
@@ -2006,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>81</v>
@@ -2232,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>11</v>
@@ -2269,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>84</v>
@@ -2314,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>58</v>
@@ -2358,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>85</v>
@@ -2402,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>86</v>
@@ -2446,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>59</v>
@@ -2490,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>60</v>
@@ -2534,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>61</v>
@@ -2579,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>47</v>
@@ -2623,7 +2634,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>154</v>
@@ -2660,7 +2671,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>63</v>
@@ -2704,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>64</v>
@@ -2748,10 +2759,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>167</v>
@@ -2770,7 +2781,7 @@
         <v>122</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2784,7 +2795,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>66</v>
@@ -2820,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>87</v>
@@ -2856,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>88</v>
@@ -2892,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>67</v>
@@ -2928,7 +2939,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>89</v>
@@ -2964,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>69</v>
@@ -2997,8 +3008,8 @@
       <c r="C39" s="2">
         <v>2</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>237</v>
+      <c r="D39" s="21" t="s">
+        <v>236</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>90</v>
@@ -3014,7 +3025,7 @@
         <v>45</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>14</v>
@@ -3033,8 +3044,8 @@
       <c r="C40" s="2">
         <v>2</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>238</v>
+      <c r="D40" s="21" t="s">
+        <v>237</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>46</v>
@@ -3050,7 +3061,7 @@
         <v>45</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>128</v>
@@ -3069,8 +3080,8 @@
       <c r="C41" s="2">
         <v>2</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>239</v>
+      <c r="D41" s="21" t="s">
+        <v>238</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>91</v>
@@ -3086,7 +3097,7 @@
         <v>45</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>129</v>
@@ -3105,8 +3116,8 @@
       <c r="C42" s="2">
         <v>2</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>240</v>
+      <c r="D42" s="21" t="s">
+        <v>254</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>70</v>
@@ -3142,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>71</v>
@@ -3156,7 +3167,7 @@
         <v>45</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>131</v>
@@ -3175,8 +3186,8 @@
       <c r="C44" s="2">
         <v>2</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>242</v>
+      <c r="D44" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>169</v>
@@ -3192,7 +3203,7 @@
         <v>45</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>132</v>
@@ -3213,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>73</v>
@@ -3227,7 +3238,7 @@
         <v>45</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>133</v>
@@ -3247,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>74</v>
@@ -3261,7 +3272,7 @@
         <v>43</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>134</v>
@@ -3280,8 +3291,8 @@
       <c r="C47" s="2">
         <v>2</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>245</v>
+      <c r="D47" s="21" t="s">
+        <v>244</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>75</v>
@@ -3297,7 +3308,7 @@
         <v>45</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>135</v>
@@ -3317,8 +3328,8 @@
       <c r="C48" s="2">
         <v>2</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>246</v>
+      <c r="D48" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>77</v>
@@ -3334,7 +3345,7 @@
         <v>45</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>136</v>
@@ -3353,8 +3364,8 @@
       <c r="C49" s="2">
         <v>2</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>247</v>
+      <c r="D49" s="21" t="s">
+        <v>257</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>185</v>
@@ -3370,7 +3381,7 @@
         <v>45</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>137</v>
@@ -3389,8 +3400,8 @@
       <c r="C50" s="2">
         <v>2</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>248</v>
+      <c r="D50" s="21" t="s">
+        <v>239</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>204</v>
@@ -3406,7 +3417,7 @@
         <v>45</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K50" s="12" t="s">
         <v>203</v>

--- a/config_debug/fish3d_map_config.xlsx
+++ b/config_debug/fish3d_map_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="257">
   <si>
     <t>line|行号</t>
   </si>
@@ -162,19 +162,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>turntable_ywdj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>一网打尽</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一群命运共同体的鱼，不过任意一条标记有“一网打尽”的鱼，其他的将同时被捕获。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_icon_ywdj</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -657,10 +649,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1036,6 +1024,14 @@
   </si>
   <si>
     <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_bg_ywdj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turntable_ywdj_3d</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1484,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D50"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1527,14 +1523,14 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -1558,29 +1554,29 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="5">
         <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -1596,26 +1592,26 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="5">
         <v>8</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>25</v>
@@ -1634,29 +1630,29 @@
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="5">
         <v>8</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -1672,26 +1668,26 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="5">
         <v>5</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>26</v>
@@ -1710,26 +1706,26 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="5">
         <v>8</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L6" s="18" t="s">
         <v>23</v>
@@ -1748,29 +1744,29 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="5">
         <v>5</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -1786,26 +1782,26 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="5">
         <v>5</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>18</v>
@@ -1824,29 +1820,29 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5">
         <v>5</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="2"/>
@@ -1863,29 +1859,29 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="5">
         <v>5</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N10" s="2"/>
     </row>
@@ -1901,26 +1897,26 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="5">
         <v>5</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>19</v>
@@ -1939,29 +1935,29 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="5">
         <v>4</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="2"/>
@@ -1978,29 +1974,29 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="5">
         <v>5</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>37</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="2"/>
@@ -2017,26 +2013,26 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="5">
         <v>5</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L14" s="18" t="s">
         <v>27</v>
@@ -2055,29 +2051,29 @@
         <v>1</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="5">
         <v>4</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N15" s="2"/>
     </row>
@@ -2093,26 +2089,26 @@
         <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="5">
         <v>4</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L16" s="17" t="s">
         <v>18</v>
@@ -2131,26 +2127,26 @@
         <v>1</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="5">
         <v>4</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>36</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>26</v>
@@ -2169,26 +2165,26 @@
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="5">
         <v>3</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>21</v>
@@ -2206,26 +2202,26 @@
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="5">
         <v>3</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>24</v>
@@ -2243,26 +2239,26 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="5">
         <v>3</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>20</v>
@@ -2280,26 +2276,26 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="5">
         <v>2</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L21" s="17" t="s">
         <v>18</v>
@@ -2325,26 +2321,26 @@
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="5">
         <v>2</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L22" s="18" t="s">
         <v>22</v>
@@ -2369,29 +2365,29 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
         <v>2</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2413,29 +2409,29 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="5">
         <v>4</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2457,29 +2453,29 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
         <v>3</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2501,26 +2497,26 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
         <v>3</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>29</v>
@@ -2545,26 +2541,26 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="5">
         <v>3</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>28</v>
@@ -2590,29 +2586,29 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
         <v>2</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2634,26 +2630,26 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="5">
         <v>3</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>30</v>
@@ -2671,29 +2667,29 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="5">
         <v>3</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2715,26 +2711,26 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="5">
         <v>3</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L31" s="18" t="s">
         <v>31</v>
@@ -2759,29 +2755,29 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
         <v>3</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2795,29 +2791,29 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
         <v>3</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2831,23 +2827,23 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
         <v>2</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>13</v>
@@ -2867,29 +2863,29 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
         <v>3</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2903,29 +2899,29 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
         <v>3</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2939,29 +2935,29 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
         <v>3</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2975,10 +2971,10 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -2986,16 +2982,16 @@
         <v>3</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -3009,29 +3005,29 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="5">
         <v>3</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -3045,29 +3041,29 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
         <v>3</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -3081,26 +3077,26 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="5">
         <v>0.5</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>17</v>
@@ -3117,29 +3113,29 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="5">
         <v>2</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3153,10 +3149,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -3164,16 +3160,16 @@
         <v>3</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -3187,29 +3183,29 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="5">
         <v>1.5</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M44" s="18"/>
     </row>
@@ -3224,10 +3220,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -3235,16 +3231,16 @@
         <v>1</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -3258,10 +3254,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -3269,16 +3265,16 @@
         <v>1</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3292,29 +3288,29 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="5">
         <v>2</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M47" s="8"/>
     </row>
@@ -3329,26 +3325,26 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="5">
         <v>1</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L48" s="18" t="s">
         <v>15</v>
@@ -3365,29 +3361,29 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="5">
         <v>1</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3401,29 +3397,29 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="5">
         <v>0.5</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3437,29 +3433,25 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>162</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>150</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J51" s="11"/>
       <c r="K51" s="10" t="s">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish3d_map_config.xlsx
+++ b/config_debug/fish3d_map_config.xlsx
@@ -653,385 +653,385 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120~140倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140~160倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>150~170倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180~200倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200~220倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
+  </si>
+  <si>
+    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常说是海中的小公主。</t>
+  </si>
+  <si>
+    <t>身型小巧，自认为很可爱。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩的外表下蕴藏着气动山河的力量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异的巨型乌贼，触手的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D084</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高400倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高700倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_bg_ywdj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turntable_ywdj_3d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>120~140倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>140~160倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>150~170倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>180~200倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200~220倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
-  </si>
-  <si>
-    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>常说是海中的小公主。</t>
-  </si>
-  <si>
-    <t>身型小巧，自认为很可爱。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩的外表下蕴藏着气动山河的力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异的巨型乌贼，触手的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D084</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高400倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高700倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高800倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_bg_ywdj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>turntable_ywdj_3d</t>
+    <t>5,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1480,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F35" activeCellId="1" sqref="F33 F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>76</v>
@@ -1576,7 +1576,7 @@
         <v>90</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>48</v>
@@ -1652,7 +1652,7 @@
         <v>92</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>49</v>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>50</v>
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>10</v>
@@ -1766,7 +1766,7 @@
         <v>95</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>51</v>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>52</v>
@@ -1842,7 +1842,7 @@
         <v>97</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="2"/>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>53</v>
@@ -1881,7 +1881,7 @@
         <v>98</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N10" s="2"/>
     </row>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>77</v>
@@ -1935,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>78</v>
@@ -1957,7 +1957,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="2"/>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>54</v>
@@ -1996,7 +1996,7 @@
         <v>101</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="2"/>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>79</v>
@@ -2073,7 +2073,7 @@
         <v>103</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N15" s="2"/>
     </row>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>11</v>
@@ -2276,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>82</v>
@@ -2292,7 +2292,7 @@
         <v>41</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>109</v>
@@ -2321,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>56</v>
@@ -2365,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>83</v>
@@ -2381,13 +2381,13 @@
         <v>41</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>111</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2409,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>84</v>
@@ -2425,13 +2425,13 @@
         <v>41</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>112</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2453,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>57</v>
@@ -2469,13 +2469,13 @@
         <v>41</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>113</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2497,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2541,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>59</v>
@@ -2557,7 +2557,7 @@
         <v>43</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>115</v>
@@ -2586,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>45</v>
@@ -2602,13 +2602,13 @@
         <v>41</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>116</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2630,7 +2630,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>152</v>
@@ -2667,7 +2667,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>61</v>
@@ -2689,7 +2689,7 @@
         <v>118</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2711,13 +2711,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="5">
@@ -2755,13 +2755,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
@@ -2777,7 +2777,7 @@
         <v>120</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2791,13 +2791,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
@@ -2813,7 +2813,7 @@
         <v>121</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2827,13 +2827,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
@@ -2863,13 +2863,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -2885,7 +2885,7 @@
         <v>122</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2899,13 +2899,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -2921,7 +2921,7 @@
         <v>123</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2935,13 +2935,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -2957,7 +2957,7 @@
         <v>124</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2971,7 +2971,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>67</v>
@@ -2991,7 +2991,7 @@
         <v>125</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -3005,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>88</v>
@@ -3021,13 +3021,13 @@
         <v>43</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -3041,13 +3041,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3057,13 +3057,13 @@
         <v>43</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>126</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -3077,7 +3077,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>89</v>
@@ -3093,7 +3093,7 @@
         <v>43</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>127</v>
@@ -3113,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>68</v>
@@ -3135,7 +3135,7 @@
         <v>128</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3149,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>69</v>
@@ -3163,13 +3163,13 @@
         <v>43</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>129</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -3183,10 +3183,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>158</v>
@@ -3199,13 +3199,13 @@
         <v>43</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>130</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M44" s="18"/>
     </row>
@@ -3220,7 +3220,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>71</v>
@@ -3234,13 +3234,13 @@
         <v>43</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>131</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -3254,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>72</v>
@@ -3268,13 +3268,13 @@
         <v>41</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>132</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3288,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>73</v>
@@ -3304,13 +3304,13 @@
         <v>43</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M47" s="8"/>
     </row>
@@ -3325,7 +3325,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>75</v>
@@ -3341,7 +3341,7 @@
         <v>43</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>134</v>
@@ -3361,10 +3361,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>153</v>
@@ -3377,13 +3377,13 @@
         <v>43</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>135</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3397,10 +3397,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>159</v>
@@ -3413,13 +3413,13 @@
         <v>43</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3433,7 +3433,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>39</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>40</v>

--- a/config_debug/fish3d_map_config.xlsx
+++ b/config_debug/fish3d_map_config.xlsx
@@ -605,433 +605,433 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_id|场次ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120~140倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140~160倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180~200倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>200~220倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
+  </si>
+  <si>
+    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常说是海中的小公主。</t>
+  </si>
+  <si>
+    <t>身型小巧，自认为很可爱。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩的外表下蕴藏着气动山河的力量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异的巨型乌贼，触手的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D084</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高400倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高700倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_bg_ywdj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turntable_ywdj_3d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>多倍奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_id|场次ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>120~140倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>140~160倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>150~170倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>180~200倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200~220倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
-  </si>
-  <si>
-    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>常说是海中的小公主。</t>
-  </si>
-  <si>
-    <t>身型小巧，自认为很可爱。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩的外表下蕴藏着气动山河的力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异的巨型乌贼，触手的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D084</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高400倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高700倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高800倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_bg_ywdj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>turntable_ywdj_3d</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1480,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F35" activeCellId="1" sqref="F33 F35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1523,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>76</v>
@@ -1576,7 +1576,7 @@
         <v>90</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>48</v>
@@ -1652,7 +1652,7 @@
         <v>92</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>49</v>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>50</v>
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>10</v>
@@ -1766,7 +1766,7 @@
         <v>95</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>51</v>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>52</v>
@@ -1842,7 +1842,7 @@
         <v>97</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="2"/>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>53</v>
@@ -1881,7 +1881,7 @@
         <v>98</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N10" s="2"/>
     </row>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>77</v>
@@ -1935,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>78</v>
@@ -1957,7 +1957,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="2"/>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>54</v>
@@ -1996,7 +1996,7 @@
         <v>101</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="2"/>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>79</v>
@@ -2073,7 +2073,7 @@
         <v>103</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N15" s="2"/>
     </row>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>11</v>
@@ -2276,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>82</v>
@@ -2292,7 +2292,7 @@
         <v>41</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>109</v>
@@ -2321,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>56</v>
@@ -2365,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>83</v>
@@ -2381,13 +2381,13 @@
         <v>41</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>111</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2409,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>84</v>
@@ -2425,13 +2425,13 @@
         <v>41</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>112</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2453,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>57</v>
@@ -2469,13 +2469,13 @@
         <v>41</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>113</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2497,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2513,7 +2513,7 @@
         <v>41</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>114</v>
@@ -2541,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>59</v>
@@ -2557,7 +2557,7 @@
         <v>43</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>115</v>
@@ -2586,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>45</v>
@@ -2602,13 +2602,13 @@
         <v>41</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>116</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2630,10 +2630,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>46</v>
@@ -2667,7 +2667,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>61</v>
@@ -2689,7 +2689,7 @@
         <v>118</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2711,13 +2711,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="5">
@@ -2755,13 +2755,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
@@ -2777,7 +2777,7 @@
         <v>120</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2791,13 +2791,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
@@ -2813,7 +2813,7 @@
         <v>121</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2827,13 +2827,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
@@ -2863,13 +2863,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -2885,7 +2885,7 @@
         <v>122</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2899,13 +2899,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -2921,7 +2921,7 @@
         <v>123</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2935,13 +2935,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -2957,7 +2957,7 @@
         <v>124</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2971,7 +2971,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>67</v>
@@ -2991,7 +2991,7 @@
         <v>125</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -3005,13 +3005,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>88</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="5">
@@ -3021,13 +3021,13 @@
         <v>43</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -3041,13 +3041,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3057,13 +3057,13 @@
         <v>43</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>126</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -3077,13 +3077,13 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>89</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="5">
@@ -3093,7 +3093,7 @@
         <v>43</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>127</v>
@@ -3113,13 +3113,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="5">
@@ -3129,13 +3129,13 @@
         <v>43</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>128</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3149,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>69</v>
@@ -3163,13 +3163,13 @@
         <v>43</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>129</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -3183,13 +3183,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="5">
@@ -3199,13 +3199,13 @@
         <v>43</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>130</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M44" s="18"/>
     </row>
@@ -3220,7 +3220,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>71</v>
@@ -3234,13 +3234,13 @@
         <v>43</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>131</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -3254,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>72</v>
@@ -3268,13 +3268,13 @@
         <v>41</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>132</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3288,13 +3288,13 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>73</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="5">
@@ -3304,13 +3304,13 @@
         <v>43</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M47" s="8"/>
     </row>
@@ -3325,13 +3325,13 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>75</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="5">
@@ -3341,7 +3341,7 @@
         <v>43</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>134</v>
@@ -3361,13 +3361,13 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="5">
@@ -3377,13 +3377,13 @@
         <v>43</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>135</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3397,13 +3397,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="5">
@@ -3413,13 +3413,13 @@
         <v>43</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3433,7 +3433,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>39</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>40</v>

--- a/config_debug/fish3d_map_config.xlsx
+++ b/config_debug/fish3d_map_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="260">
   <si>
     <t>line|行号</t>
   </si>
@@ -605,373 +605,437 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>game_id|场次ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
+  </si>
+  <si>
+    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常说是海中的小公主。</t>
+  </si>
+  <si>
+    <t>身型小巧，自认为很可爱。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩的外表下蕴藏着气动山河的力量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异的巨型乌贼，触手的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D084</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高400倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_bg_ywdj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turntable_ywdj_3d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多倍奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~80倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~160倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高200倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>最高500倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>game_id|场次ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>120~140倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>140~160倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>180~200倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200~220倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
-  </si>
-  <si>
-    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>常说是海中的小公主。</t>
-  </si>
-  <si>
-    <t>身型小巧，自认为很可爱。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩的外表下蕴藏着气动山河的力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异的巨型乌贼，触手的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D084</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高400倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高700倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
+    <t>最高500倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -979,59 +1043,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>最高800倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_bg_ywdj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>turntable_ywdj_3d</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多倍奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>150~170倍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1480,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1523,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
@@ -1554,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>76</v>
@@ -1576,7 +1588,7 @@
         <v>90</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -1592,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>48</v>
@@ -1652,7 +1664,7 @@
         <v>92</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -1668,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>49</v>
@@ -1706,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>50</v>
@@ -1744,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>10</v>
@@ -1766,7 +1778,7 @@
         <v>95</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -1782,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>51</v>
@@ -1820,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>52</v>
@@ -1842,7 +1854,7 @@
         <v>97</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="2"/>
@@ -1859,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>53</v>
@@ -1881,7 +1893,7 @@
         <v>98</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N10" s="2"/>
     </row>
@@ -1897,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>77</v>
@@ -1935,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>78</v>
@@ -1957,7 +1969,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="2"/>
@@ -1974,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>54</v>
@@ -1996,7 +2008,7 @@
         <v>101</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="2"/>
@@ -2013,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>79</v>
@@ -2073,7 +2085,7 @@
         <v>103</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N15" s="2"/>
     </row>
@@ -2239,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>11</v>
@@ -2276,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>82</v>
@@ -2292,7 +2304,7 @@
         <v>41</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>109</v>
@@ -2321,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>56</v>
@@ -2365,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>83</v>
@@ -2381,13 +2393,13 @@
         <v>41</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>111</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2409,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>84</v>
@@ -2425,13 +2437,13 @@
         <v>41</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>112</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2453,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>57</v>
@@ -2469,13 +2481,13 @@
         <v>41</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>113</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2497,13 +2509,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2513,7 +2525,7 @@
         <v>41</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>114</v>
@@ -2541,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>59</v>
@@ -2557,7 +2569,7 @@
         <v>43</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>115</v>
@@ -2586,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>45</v>
@@ -2602,13 +2614,13 @@
         <v>41</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>116</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2630,10 +2642,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>46</v>
@@ -2667,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>61</v>
@@ -2689,7 +2701,7 @@
         <v>118</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2711,13 +2723,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="5">
@@ -2755,13 +2767,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
@@ -2777,7 +2789,7 @@
         <v>120</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2791,13 +2803,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
@@ -2813,7 +2825,7 @@
         <v>121</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2827,13 +2839,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
@@ -2863,13 +2875,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -2885,7 +2897,7 @@
         <v>122</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2899,13 +2911,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -2921,7 +2933,7 @@
         <v>123</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2935,13 +2947,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -2957,7 +2969,7 @@
         <v>124</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2971,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>67</v>
@@ -2991,7 +3003,7 @@
         <v>125</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -3005,13 +3017,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>88</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="5">
@@ -3021,13 +3033,13 @@
         <v>43</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -3041,13 +3053,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3057,13 +3069,13 @@
         <v>43</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>126</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -3077,13 +3089,13 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>89</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="5">
@@ -3093,7 +3105,7 @@
         <v>43</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>127</v>
@@ -3113,13 +3125,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="5">
@@ -3129,13 +3141,13 @@
         <v>43</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>128</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3149,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>69</v>
@@ -3163,13 +3175,13 @@
         <v>43</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>129</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -3183,13 +3195,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="5">
@@ -3199,13 +3211,13 @@
         <v>43</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>130</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M44" s="18"/>
     </row>
@@ -3220,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>71</v>
@@ -3234,13 +3246,13 @@
         <v>43</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>131</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -3254,7 +3266,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>72</v>
@@ -3268,13 +3280,13 @@
         <v>41</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>132</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3288,13 +3300,13 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>73</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="5">
@@ -3304,13 +3316,13 @@
         <v>43</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M47" s="8"/>
     </row>
@@ -3325,13 +3337,13 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>75</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="5">
@@ -3341,7 +3353,7 @@
         <v>43</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>134</v>
@@ -3361,13 +3373,13 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="5">
@@ -3377,13 +3389,13 @@
         <v>43</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>135</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3397,13 +3409,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="5">
@@ -3413,13 +3425,13 @@
         <v>43</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3433,7 +3445,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>39</v>
@@ -3448,7 +3460,7 @@
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="10" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>40</v>

--- a/config_debug/fish3d_map_config.xlsx
+++ b/config_debug/fish3d_map_config.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="config|鱼的图鉴配置" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2330,7 +2330,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>207</v>

--- a/config_debug/fish3d_map_config.xlsx
+++ b/config_debug/fish3d_map_config.xlsx
@@ -739,10 +739,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>变异的巨型乌贼，触手的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1044,6 +1040,10 @@
   </si>
   <si>
     <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>76</v>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>48</v>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>49</v>
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>50</v>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>10</v>
@@ -1778,7 +1778,7 @@
         <v>95</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>51</v>
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>52</v>
@@ -1871,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>53</v>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>77</v>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>78</v>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>54</v>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>79</v>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>11</v>
@@ -2288,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>82</v>
@@ -2304,7 +2304,7 @@
         <v>41</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>109</v>
@@ -2330,10 +2330,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>56</v>
@@ -2377,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>83</v>
@@ -2393,7 +2393,7 @@
         <v>41</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>111</v>
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>84</v>
@@ -2437,13 +2437,13 @@
         <v>41</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>112</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>57</v>
@@ -2481,13 +2481,13 @@
         <v>41</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>113</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2509,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>58</v>
@@ -2553,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>59</v>
@@ -2569,7 +2569,7 @@
         <v>43</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>115</v>
@@ -2598,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>45</v>
@@ -2614,7 +2614,7 @@
         <v>41</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>116</v>
@@ -2642,7 +2642,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>150</v>
@@ -2679,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>61</v>
@@ -2723,7 +2723,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>62</v>
@@ -2767,10 +2767,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>160</v>
@@ -2789,7 +2789,7 @@
         <v>120</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2803,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>64</v>
@@ -2839,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>85</v>
@@ -2875,13 +2875,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -2911,13 +2911,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -2933,7 +2933,7 @@
         <v>123</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2947,13 +2947,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -2983,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>67</v>
@@ -3003,7 +3003,7 @@
         <v>125</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -3017,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>88</v>
@@ -3033,13 +3033,13 @@
         <v>43</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -3053,13 +3053,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3069,7 +3069,7 @@
         <v>43</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>126</v>
@@ -3089,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>89</v>
@@ -3105,7 +3105,7 @@
         <v>43</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>127</v>
@@ -3125,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>68</v>
@@ -3141,7 +3141,7 @@
         <v>43</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>128</v>
@@ -3161,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>69</v>
@@ -3175,7 +3175,7 @@
         <v>43</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>129</v>
@@ -3195,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>162</v>
@@ -3211,7 +3211,7 @@
         <v>43</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>130</v>
@@ -3232,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>71</v>
@@ -3246,7 +3246,7 @@
         <v>43</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>131</v>
@@ -3266,7 +3266,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>72</v>
@@ -3280,13 +3280,13 @@
         <v>41</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>132</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3300,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>73</v>
@@ -3316,7 +3316,7 @@
         <v>43</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>133</v>
@@ -3337,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>75</v>
@@ -3353,7 +3353,7 @@
         <v>43</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>134</v>
@@ -3373,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>173</v>
@@ -3389,7 +3389,7 @@
         <v>43</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>135</v>
@@ -3409,10 +3409,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>157</v>
@@ -3425,13 +3425,13 @@
         <v>43</v>
       </c>
       <c r="J50" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="L50" s="18" t="s">
         <v>259</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="L50" s="18" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3445,7 +3445,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>39</v>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>40</v>

--- a/config_debug/fish3d_map_config.xlsx
+++ b/config_debug/fish3d_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="279">
   <si>
     <t>line|行号</t>
   </si>
@@ -638,481 +638,485 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>远古龙龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
+  </si>
+  <si>
+    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常说是海中的小公主。</t>
+  </si>
+  <si>
+    <t>身型小巧，自认为很可爱。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩的外表下蕴藏着气动山河的力量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D084</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高400倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_bg_ywdj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turntable_ywdj_3d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多倍奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~80倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~160倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高200倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>3,4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.6,-2.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2.6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos|坐标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签类型1普通鱼，2黄金鱼，3活动鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>2,3,4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
-  </si>
-  <si>
-    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>常说是海中的小公主。</t>
-  </si>
-  <si>
-    <t>身型小巧，自认为很可爱。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩的外表下蕴藏着气动山河的力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D084</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高400倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_bg_ywdj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>turntable_ywdj_3d</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多倍奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~80倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~160倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高200倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高800倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
+    <t>2,3,4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1.6,-2.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2.6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5,50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos|坐标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_hfy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D089</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50-100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag|标签类型1普通鱼，2黄金鱼，3活动鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1577,7 +1581,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="E29:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1611,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1630,7 +1634,7 @@
         <v>41</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -1654,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>75</v>
@@ -1677,7 +1681,7 @@
         <v>89</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -1693,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>47</v>
@@ -1748,7 +1752,7 @@
         <v>40</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>31</v>
@@ -1757,7 +1761,7 @@
         <v>91</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -1773,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>48</v>
@@ -1789,7 +1793,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>136</v>
@@ -1814,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>49</v>
@@ -1830,7 +1834,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>33</v>
@@ -1855,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>9</v>
@@ -1871,7 +1875,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>34</v>
@@ -1880,7 +1884,7 @@
         <v>94</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -1896,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>50</v>
@@ -1912,7 +1916,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>137</v>
@@ -1937,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>51</v>
@@ -1960,7 +1964,7 @@
         <v>96</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="2"/>
@@ -1977,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>52</v>
@@ -1993,7 +1997,7 @@
         <v>42</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>139</v>
@@ -2002,7 +2006,7 @@
         <v>97</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2018,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>76</v>
@@ -2057,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>77</v>
@@ -2080,7 +2084,7 @@
         <v>99</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
@@ -2097,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>53</v>
@@ -2113,7 +2117,7 @@
         <v>40</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>36</v>
@@ -2122,7 +2126,7 @@
         <v>100</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
@@ -2139,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>78</v>
@@ -2194,7 +2198,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>143</v>
@@ -2203,7 +2207,7 @@
         <v>102</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -2235,7 +2239,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>144</v>
@@ -2276,7 +2280,7 @@
         <v>40</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>35</v>
@@ -2355,7 +2359,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>146</v>
@@ -2379,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>10</v>
@@ -2417,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>81</v>
@@ -2433,10 +2437,10 @@
         <v>40</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>108</v>
@@ -2465,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>55</v>
@@ -2510,13 +2514,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
@@ -2526,16 +2530,16 @@
         <v>40</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>110</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -2557,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>83</v>
@@ -2574,13 +2578,13 @@
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>111</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -2602,13 +2606,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
@@ -2618,16 +2622,16 @@
         <v>40</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>112</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2649,13 +2653,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2666,7 +2670,7 @@
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>113</v>
@@ -2694,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>58</v>
@@ -2711,7 +2715,7 @@
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>114</v>
@@ -2740,13 +2744,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
@@ -2756,16 +2760,16 @@
         <v>40</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>115</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2787,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>149</v>
@@ -2803,7 +2807,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>147</v>
@@ -2827,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>60</v>
@@ -2850,7 +2854,7 @@
         <v>117</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2872,13 +2876,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="5">
@@ -2917,13 +2921,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
@@ -2940,7 +2944,7 @@
         <v>119</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2954,13 +2958,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
@@ -2977,7 +2981,7 @@
         <v>120</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2991,13 +2995,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
@@ -3028,13 +3032,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -3051,7 +3055,7 @@
         <v>121</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -3065,13 +3069,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -3088,7 +3092,7 @@
         <v>122</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -3102,13 +3106,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -3118,7 +3122,7 @@
         <v>42</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>147</v>
@@ -3127,7 +3131,7 @@
         <v>123</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -3141,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>66</v>
@@ -3162,7 +3166,7 @@
         <v>124</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3176,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>87</v>
@@ -3192,16 +3196,16 @@
         <v>42</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>13</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -3215,13 +3219,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3232,13 +3236,13 @@
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>125</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3252,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>88</v>
@@ -3269,7 +3273,7 @@
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>126</v>
@@ -3289,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>67</v>
@@ -3306,13 +3310,13 @@
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>127</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -3326,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>68</v>
@@ -3341,13 +3345,13 @@
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>128</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -3361,10 +3365,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>155</v>
@@ -3378,13 +3382,13 @@
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L44" s="12" t="s">
         <v>129</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N44" s="18"/>
     </row>
@@ -3399,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>70</v>
@@ -3414,13 +3418,13 @@
       </c>
       <c r="J45" s="23"/>
       <c r="K45" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>130</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -3434,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>71</v>
@@ -3449,13 +3453,13 @@
       </c>
       <c r="J46" s="23"/>
       <c r="K46" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>131</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -3469,7 +3473,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>72</v>
@@ -3486,13 +3490,13 @@
       </c>
       <c r="J47" s="23"/>
       <c r="K47" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L47" s="12" t="s">
         <v>132</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N47" s="8"/>
     </row>
@@ -3507,7 +3511,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>74</v>
@@ -3524,7 +3528,7 @@
       </c>
       <c r="J48" s="23"/>
       <c r="K48" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L48" s="12" t="s">
         <v>133</v>
@@ -3544,10 +3548,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>150</v>
@@ -3561,13 +3565,13 @@
       </c>
       <c r="J49" s="23"/>
       <c r="K49" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>134</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -3581,10 +3585,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>156</v>
@@ -3598,13 +3602,13 @@
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3618,7 +3622,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>38</v>
@@ -3634,7 +3638,7 @@
       <c r="J51" s="23"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M51" s="18" t="s">
         <v>39</v>
@@ -3651,13 +3655,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="5">
@@ -3668,13 +3672,13 @@
       </c>
       <c r="J52" s="23"/>
       <c r="K52" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish3d_map_config.xlsx
+++ b/config_debug/fish3d_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="278">
   <si>
     <t>line|行号</t>
   </si>
@@ -638,424 +638,416 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
+  </si>
+  <si>
+    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常说是海中的小公主。</t>
+  </si>
+  <si>
+    <t>身型小巧，自认为很可爱。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩的外表下蕴藏着气动山河的力量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D084</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高400倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_bg_ywdj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turntable_ywdj_3d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多倍奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~80倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~160倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高200倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
-  </si>
-  <si>
-    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>常说是海中的小公主。</t>
-  </si>
-  <si>
-    <t>身型小巧，自认为很可爱。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩的外表下蕴藏着气动山河的力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D084</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高400倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_bg_ywdj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>turntable_ywdj_3d</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多倍奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~80倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~160倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高200倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高800倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>-1.6,-2.5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1121,6 +1113,10 @@
   </si>
   <si>
     <t>tag|标签类型1普通鱼，2黄金鱼，3活动鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1579,9 +1575,9 @@
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1615,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1634,7 +1630,7 @@
         <v>41</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -1658,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>75</v>
@@ -1681,7 +1677,7 @@
         <v>89</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -1697,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>47</v>
@@ -1752,7 +1748,7 @@
         <v>40</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>31</v>
@@ -1761,7 +1757,7 @@
         <v>91</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -1777,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>48</v>
@@ -1793,7 +1789,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>136</v>
@@ -1818,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>49</v>
@@ -1834,7 +1830,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>33</v>
@@ -1859,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>9</v>
@@ -1875,7 +1871,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>34</v>
@@ -1884,7 +1880,7 @@
         <v>94</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -1900,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>50</v>
@@ -1916,7 +1912,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>137</v>
@@ -1941,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>51</v>
@@ -1964,7 +1960,7 @@
         <v>96</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="2"/>
@@ -1981,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>52</v>
@@ -1997,7 +1993,7 @@
         <v>42</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>139</v>
@@ -2006,7 +2002,7 @@
         <v>97</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2022,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>76</v>
@@ -2061,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>77</v>
@@ -2084,7 +2080,7 @@
         <v>99</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
@@ -2101,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>53</v>
@@ -2117,7 +2113,7 @@
         <v>40</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>36</v>
@@ -2126,7 +2122,7 @@
         <v>100</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
@@ -2143,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>78</v>
@@ -2198,7 +2194,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>143</v>
@@ -2207,7 +2203,7 @@
         <v>102</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -2239,7 +2235,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>144</v>
@@ -2280,7 +2276,7 @@
         <v>40</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>35</v>
@@ -2359,7 +2355,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>146</v>
@@ -2383,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>10</v>
@@ -2421,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>81</v>
@@ -2437,10 +2433,10 @@
         <v>40</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>108</v>
@@ -2469,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>55</v>
@@ -2514,13 +2510,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
@@ -2530,16 +2526,16 @@
         <v>40</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>110</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -2561,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>83</v>
@@ -2578,13 +2574,13 @@
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>111</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -2606,13 +2602,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
@@ -2622,16 +2618,16 @@
         <v>40</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>112</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2653,13 +2649,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2670,7 +2666,7 @@
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>113</v>
@@ -2698,7 +2694,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>58</v>
@@ -2715,7 +2711,7 @@
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>114</v>
@@ -2744,13 +2740,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
@@ -2760,16 +2756,16 @@
         <v>40</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>115</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2791,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>149</v>
@@ -2807,7 +2803,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>147</v>
@@ -2831,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>60</v>
@@ -2854,7 +2850,7 @@
         <v>117</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2876,7 +2872,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>61</v>
@@ -2921,13 +2917,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
@@ -2944,7 +2940,7 @@
         <v>119</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2958,13 +2954,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
@@ -2981,7 +2977,7 @@
         <v>120</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2995,7 +2991,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>84</v>
@@ -3032,13 +3028,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -3055,7 +3051,7 @@
         <v>121</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -3069,13 +3065,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -3092,7 +3088,7 @@
         <v>122</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -3106,13 +3102,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -3122,7 +3118,7 @@
         <v>42</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>147</v>
@@ -3131,7 +3127,7 @@
         <v>123</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -3145,7 +3141,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>66</v>
@@ -3166,7 +3162,7 @@
         <v>124</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3180,7 +3176,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>87</v>
@@ -3196,16 +3192,16 @@
         <v>42</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>13</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -3219,13 +3215,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3236,13 +3232,13 @@
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>125</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3256,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>88</v>
@@ -3273,7 +3269,7 @@
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>126</v>
@@ -3293,7 +3289,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>67</v>
@@ -3310,13 +3306,13 @@
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>127</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -3330,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>68</v>
@@ -3345,13 +3341,13 @@
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>128</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -3365,10 +3361,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>155</v>
@@ -3382,13 +3378,13 @@
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L44" s="12" t="s">
         <v>129</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N44" s="18"/>
     </row>
@@ -3403,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>70</v>
@@ -3418,13 +3414,13 @@
       </c>
       <c r="J45" s="23"/>
       <c r="K45" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>130</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -3438,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>71</v>
@@ -3453,13 +3449,13 @@
       </c>
       <c r="J46" s="23"/>
       <c r="K46" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>131</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -3473,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>72</v>
@@ -3490,13 +3486,13 @@
       </c>
       <c r="J47" s="23"/>
       <c r="K47" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L47" s="12" t="s">
         <v>132</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N47" s="8"/>
     </row>
@@ -3511,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>74</v>
@@ -3528,7 +3524,7 @@
       </c>
       <c r="J48" s="23"/>
       <c r="K48" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L48" s="12" t="s">
         <v>133</v>
@@ -3548,10 +3544,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>150</v>
@@ -3565,13 +3561,13 @@
       </c>
       <c r="J49" s="23"/>
       <c r="K49" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>134</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -3585,10 +3581,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>156</v>
@@ -3602,13 +3598,13 @@
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3622,7 +3618,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>38</v>
@@ -3638,7 +3634,7 @@
       <c r="J51" s="23"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M51" s="18" t="s">
         <v>39</v>
@@ -3655,13 +3651,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="5">
@@ -3672,13 +3668,13 @@
       </c>
       <c r="J52" s="23"/>
       <c r="K52" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/fish3d_map_config.xlsx
+++ b/config_debug/fish3d_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="278">
   <si>
     <t>line|行号</t>
   </si>
@@ -638,6 +638,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>远古龙龟</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1105,22 +1117,6 @@
   </si>
   <si>
     <t>tag|标签类型1普通鱼，2黄金鱼，3活动鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1581,7 +1577,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="E29:F37"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1615,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1634,7 +1630,7 @@
         <v>41</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -1658,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>75</v>
@@ -1681,7 +1677,7 @@
         <v>89</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -1697,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>47</v>
@@ -1752,7 +1748,7 @@
         <v>40</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>31</v>
@@ -1761,7 +1757,7 @@
         <v>91</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -1777,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>48</v>
@@ -1793,7 +1789,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>136</v>
@@ -1818,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>49</v>
@@ -1834,7 +1830,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>33</v>
@@ -1859,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>9</v>
@@ -1875,7 +1871,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>34</v>
@@ -1884,7 +1880,7 @@
         <v>94</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -1900,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>50</v>
@@ -1916,7 +1912,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>137</v>
@@ -1941,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>51</v>
@@ -1964,7 +1960,7 @@
         <v>96</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="2"/>
@@ -1981,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>52</v>
@@ -1997,7 +1993,7 @@
         <v>42</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>139</v>
@@ -2006,7 +2002,7 @@
         <v>97</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2022,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>76</v>
@@ -2061,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>77</v>
@@ -2084,7 +2080,7 @@
         <v>99</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
@@ -2101,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>53</v>
@@ -2117,7 +2113,7 @@
         <v>40</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>36</v>
@@ -2126,7 +2122,7 @@
         <v>100</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
@@ -2143,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>78</v>
@@ -2198,7 +2194,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>143</v>
@@ -2207,7 +2203,7 @@
         <v>102</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -2239,7 +2235,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>144</v>
@@ -2280,7 +2276,7 @@
         <v>40</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>35</v>
@@ -2359,7 +2355,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>146</v>
@@ -2383,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>10</v>
@@ -2421,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>81</v>
@@ -2437,10 +2433,10 @@
         <v>40</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>108</v>
@@ -2469,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>55</v>
@@ -2514,13 +2510,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
@@ -2530,16 +2526,16 @@
         <v>40</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>110</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -2561,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>83</v>
@@ -2578,13 +2574,13 @@
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>111</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -2606,13 +2602,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
@@ -2622,16 +2618,16 @@
         <v>40</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>112</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2653,13 +2649,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2670,7 +2666,7 @@
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>113</v>
@@ -2698,7 +2694,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>58</v>
@@ -2715,7 +2711,7 @@
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>114</v>
@@ -2744,13 +2740,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
@@ -2760,16 +2756,16 @@
         <v>40</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>115</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2791,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>149</v>
@@ -2807,7 +2803,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>147</v>
@@ -2831,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>60</v>
@@ -2854,7 +2850,7 @@
         <v>117</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2876,7 +2872,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>61</v>
@@ -2921,13 +2917,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
@@ -2944,7 +2940,7 @@
         <v>119</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2958,13 +2954,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>276</v>
+        <v>159</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
@@ -2981,7 +2977,7 @@
         <v>120</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2995,13 +2991,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>276</v>
+        <v>159</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
@@ -3032,13 +3028,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -3055,7 +3051,7 @@
         <v>121</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -3069,13 +3065,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -3092,7 +3088,7 @@
         <v>122</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -3106,13 +3102,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -3122,7 +3118,7 @@
         <v>42</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>147</v>
@@ -3131,7 +3127,7 @@
         <v>123</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -3145,7 +3141,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>66</v>
@@ -3166,7 +3162,7 @@
         <v>124</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3180,7 +3176,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>87</v>
@@ -3196,16 +3192,16 @@
         <v>42</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>13</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -3219,13 +3215,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3236,13 +3232,13 @@
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>125</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3256,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>88</v>
@@ -3273,7 +3269,7 @@
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>126</v>
@@ -3293,7 +3289,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>67</v>
@@ -3310,13 +3306,13 @@
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>127</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -3330,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>68</v>
@@ -3345,13 +3341,13 @@
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>128</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -3365,10 +3361,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>155</v>
@@ -3382,13 +3378,13 @@
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L44" s="12" t="s">
         <v>129</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N44" s="18"/>
     </row>
@@ -3403,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>70</v>
@@ -3418,13 +3414,13 @@
       </c>
       <c r="J45" s="23"/>
       <c r="K45" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>130</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -3438,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>71</v>
@@ -3453,13 +3449,13 @@
       </c>
       <c r="J46" s="23"/>
       <c r="K46" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>131</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -3473,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>72</v>
@@ -3490,13 +3486,13 @@
       </c>
       <c r="J47" s="23"/>
       <c r="K47" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L47" s="12" t="s">
         <v>132</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N47" s="8"/>
     </row>
@@ -3511,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>74</v>
@@ -3528,7 +3524,7 @@
       </c>
       <c r="J48" s="23"/>
       <c r="K48" s="11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L48" s="12" t="s">
         <v>133</v>
@@ -3548,10 +3544,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>150</v>
@@ -3565,13 +3561,13 @@
       </c>
       <c r="J49" s="23"/>
       <c r="K49" s="11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>134</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -3585,10 +3581,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>156</v>
@@ -3602,13 +3598,13 @@
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3622,7 +3618,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>38</v>
@@ -3638,7 +3634,7 @@
       <c r="J51" s="23"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M51" s="18" t="s">
         <v>39</v>
@@ -3655,13 +3651,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="5">
@@ -3672,13 +3668,13 @@
       </c>
       <c r="J52" s="23"/>
       <c r="K52" s="11" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
